--- a/src/test/resources/DataSheet.xlsx
+++ b/src/test/resources/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
